--- a/1.Resolucao_problema_tipo_Pensando_como_Hidrologo.xlsx
+++ b/1.Resolucao_problema_tipo_Pensando_como_Hidrologo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\GDRIVEPESSOAL\CURSOS\AA_Aulas_Permanentes\1.Hidrologia_Graduacao\aa1.Planilhas Excel\Pensando como hidrologo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\GitHub\EXCEL4HYDROLOGY\EXCEL4HYDROLOGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3248FF5D-2580-4672-945E-E2B8514C931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0A10A-A3E5-4C93-9392-75579A382B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BACBBEC-BCD0-4328-96F9-025AB79E650F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{3BACBBEC-BCD0-4328-96F9-025AB79E650F}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Exercício 5" sheetId="6" r:id="rId5"/>
     <sheet name="Exercício 6" sheetId="7" r:id="rId6"/>
     <sheet name="Exercício 7" sheetId="8" r:id="rId7"/>
+    <sheet name="teste git" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Exercício 7'!$E$5:$E$7</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>IDF</t>
   </si>
@@ -652,6 +653,9 @@
       </rPr>
       <t xml:space="preserve">A Barragem do Patu no município de Senador Pompeu teve seu vertedouro dimensionado para um período de retorno de 1000 anos, responda: </t>
     </r>
+  </si>
+  <si>
+    <t>testando upload git</t>
   </si>
 </sst>
 </file>
@@ -6507,8 +6511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70A074-DF6C-4DBD-AD30-E1DBD5B1D4F1}">
   <dimension ref="K6:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9733,4 +9737,24 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F77299-234B-42E5-8427-0C80E852BA06}">
+  <dimension ref="E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/1.Resolucao_problema_tipo_Pensando_como_Hidrologo.xlsx
+++ b/1.Resolucao_problema_tipo_Pensando_como_Hidrologo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\GitHub\EXCEL4HYDROLOGY\EXCEL4HYDROLOGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0A10A-A3E5-4C93-9392-75579A382B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F272E436-F059-4AAF-B432-0DBC1213BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{3BACBBEC-BCD0-4328-96F9-025AB79E650F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{3BACBBEC-BCD0-4328-96F9-025AB79E650F}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Exercício 6" sheetId="7" r:id="rId6"/>
     <sheet name="Exercício 7" sheetId="8" r:id="rId7"/>
     <sheet name="teste git" sheetId="9" r:id="rId8"/>
+    <sheet name="Planilha1" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Exercício 7'!$E$5:$E$7</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
   <si>
     <t>IDF</t>
   </si>
@@ -3841,6 +3842,301 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Exercício 1'!$AB$11:$AB$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Exercício 1'!$AC$11:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>236.03176704679598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.10247538002005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.07309614024697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.16871172666288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.717117159617032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.048016613286372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D970-4E10-9283-1F64766A9BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1993618271"/>
+        <c:axId val="1993616191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1993618271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993616191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1993616191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993618271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3961,6 +4257,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4994,6 +5330,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6212,6 +7064,137 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF46EE7-2DBA-48DA-B436-193473A9B075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="562134"/>
+          <a:ext cx="5343525" cy="4913801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161223</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A7E3CF-DFDA-497E-962F-7353BFE40A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="381000"/>
+          <a:ext cx="5619048" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE6D95C-8F80-4EB3-BD26-2929C51964D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -6512,7 +7495,7 @@
   <dimension ref="K6:AE28"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9743,7 +10726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F77299-234B-42E5-8427-0C80E852BA06}">
   <dimension ref="E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -9757,4 +10740,297 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838523F9-E8C1-4B8F-A4D1-5CCC2F207362}">
+  <dimension ref="K6:AE28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="33.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="11:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="U6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="AB7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="AB9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="W11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ref="Y11:Y16" si="0">1/X11</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="2">
+        <f>528*(AC7)^(148/1000)/(AB11+6)^0.62</f>
+        <v>236.03176704679598</v>
+      </c>
+    </row>
+    <row r="12" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="W12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="2">
+        <f>528*(AC7)^(148/1000)/(AB12+6)^0.62</f>
+        <v>187.10247538002005</v>
+      </c>
+    </row>
+    <row r="13" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="K13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="W13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="AB13">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="2">
+        <f>528*(AC7)^(148/1000)/(AB13+6)^0.62</f>
+        <v>158.07309614024697</v>
+      </c>
+    </row>
+    <row r="14" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>100</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="AB14">
+        <v>30</v>
+      </c>
+      <c r="AC14" s="2">
+        <f>528*(AC7)^(148/1000)/(AB14+6)^0.62</f>
+        <v>113.16871172666288</v>
+      </c>
+    </row>
+    <row r="15" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15">
+        <v>1000</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AB15">
+        <v>60</v>
+      </c>
+      <c r="AC15" s="2">
+        <f>528*(AC7)^(148/1000)/(AB15+6)^0.62</f>
+        <v>77.717117159617032</v>
+      </c>
+    </row>
+    <row r="16" spans="11:29" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X16">
+        <v>10000</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="AB16">
+        <v>120</v>
+      </c>
+      <c r="AC16" s="2">
+        <f>528*(AC7)^(148/1000)/(AB16+6)^0.62</f>
+        <v>52.048016613286372</v>
+      </c>
+    </row>
+    <row r="17" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>60</v>
+      </c>
+      <c r="N18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="11:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2">
+        <f>528*(M17)^(148/1000)/(M18+6)^0.62</f>
+        <v>55.27346396609866</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="K22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="11:31" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="K24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="2">
+        <f>+M19</f>
+        <v>55.27346396609866</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <f>10^(-3)/(3600)</f>
+        <v>2.7777777777777776E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="L28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="5">
+        <f>0.278*M25*M26*M27</f>
+        <v>15.366022982575428</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="1">
+        <f>+O27*O26</f>
+        <v>0.27777777777777773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>